--- a/test.xlsx
+++ b/test.xlsx
@@ -16,7 +16,32 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>1.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -365,14 +390,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
